--- a/publication/web-root/matchsync/0.1.1/CodeSystem-nmdp-transplant-timeline-cs.xlsx
+++ b/publication/web-root/matchsync/0.1.1/CodeSystem-nmdp-transplant-timeline-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-11T17:47:55-06:00</t>
+    <t>2024-12-02T18:26:03-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/publication/web-root/matchsync/0.1.1/CodeSystem-nmdp-transplant-timeline-cs.xlsx
+++ b/publication/web-root/matchsync/0.1.1/CodeSystem-nmdp-transplant-timeline-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NMDP Transplant Timeline Code System</t>
+    <t>CodeSystem - Transplant Timeline - NMDP</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T18:26:03-06:00</t>
+    <t>2025-04-15T15:35:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -141,16 +141,28 @@
     <t>1</t>
   </si>
   <si>
-    <t>&lt;4w</t>
+    <t>12W-6M</t>
+  </si>
+  <si>
+    <t>Over 12 weeks - up to 6 months</t>
+  </si>
+  <si>
+    <t>4-6W</t>
+  </si>
+  <si>
+    <t>Between 4-6 weeks</t>
+  </si>
+  <si>
+    <t>4W</t>
   </si>
   <si>
     <t>Less than 4 weeks</t>
   </si>
   <si>
-    <t>4-6w</t>
-  </si>
-  <si>
-    <t>Between 4-6 weeks</t>
+    <t>6MG</t>
+  </si>
+  <si>
+    <t>Greater than 6 months</t>
   </si>
   <si>
     <t>7-12w</t>
@@ -159,25 +171,13 @@
     <t>Between 7-12 weeks</t>
   </si>
   <si>
-    <t>12w-6m</t>
-  </si>
-  <si>
-    <t>Over 12 weeks - up to 6 months</t>
-  </si>
-  <si>
-    <t>&gt;6m</t>
-  </si>
-  <si>
-    <t>Greater than 6 months</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
     <t>N/A : MUD Transplant not preferred treatment</t>
   </si>
   <si>
-    <t>P</t>
+    <t>PEND</t>
   </si>
   <si>
     <t>Pending, Case manager to follow up</t>
